--- a/medicine/Pharmacie/Teinture_d'iode/Teinture_d'iode.xlsx
+++ b/medicine/Pharmacie/Teinture_d'iode/Teinture_d'iode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teinture_d%27iode</t>
+          <t>Teinture_d'iode</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine et en pharmacie, la teinture d'iode est l'appellation traditionnelle mais inexacte de différents solutés alcooliques d'iode officinaux. 
-Sans mention particulière, la teinture d'iode peut se référer de façon implicite à la concentration de 5 p. cent[1] ou à d'autres concentrations[2]. Il est donc déconseillé de ne pas préciser la concentration.
-Le soluté alcoolique d'iode officinal à 1 p. cent (alcool iodé à 1 p. cent) est un antiseptique[3]. Les concentrations supérieures ne sont en principe pas destinées à être employées directement sur la peau mais peuvent servir aux pharmaciens à effectuer des préparations.
+Sans mention particulière, la teinture d'iode peut se référer de façon implicite à la concentration de 5 p. cent ou à d'autres concentrations. Il est donc déconseillé de ne pas préciser la concentration.
+Le soluté alcoolique d'iode officinal à 1 p. cent (alcool iodé à 1 p. cent) est un antiseptique. Les concentrations supérieures ne sont en principe pas destinées à être employées directement sur la peau mais peuvent servir aux pharmaciens à effectuer des préparations.
 Il ne faut pas confondre les solutés alcooliques d'iode avec le soluté de Lugol qui est un soluté aqueux iodo-ioduré (associant de l'iode et un iodure), administrable à très faibles doses par voie orale dans certaines maladies thyroïdiennes ou comme protecteur thyroïdien dans certaines explorations radiologiques.
-Il est absolument contre-indiqué d'associer les composés iodés aux antiseptiques contenant du mercure (formation de composés caustiques)[4].
+Il est absolument contre-indiqué d'associer les composés iodés aux antiseptiques contenant du mercure (formation de composés caustiques).
 </t>
         </is>
       </c>
